--- a/similarities/split_global/harmonic_similarity_timestamps_382.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_382.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:14.460000', '0:02:17.180000')]</t>
+          <t>('0:02:12.420000', '0:02:42.760000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:04.940000', '0:00:23.240000')]</t>
+          <t>('0:00:00.360000', '0:00:39')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=134.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=132.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=4.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:39.445827', '0:01:45.343696')]</t>
+          <t>('0:00:32.874217', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+          <t>('0:01:47.640000', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=99.445827']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:min7', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:01:05.760000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:39.976000', '0:00:44.640000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:41.700000', '0:00:57.940000'), ('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:00.580000', '0:00:08.960000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:27.080000', '0:00:47.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:34.940000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=27.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:21.560000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
+          <t>('0:00:26.660000', '0:00:30.531000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:01:09.517005')]</t>
+          <t>('0:00:40.440000', '0:00:43.320000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=26.66</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=40.44</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.400000', '0:00:16.740000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.820000', '0:00:28.320000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=11.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=21.82']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.700000', '0:00:03.780000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb/2', 'Eb', 'Ab/5']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Ab']]</t>
+          <t>['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:15.061000', '0:00:20.867000')]</t>
+          <t>('0:04:10.300000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:30.325000', '0:00:35.471000')]</t>
+          <t>('0:04:02.060000', '0:04:14.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=15.061']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=30.325']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=242.06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min', 'C:7/A#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.700000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
